--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H2">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I2">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J2">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.8598525</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N2">
-        <v>3.719705</v>
+        <v>5.007457</v>
       </c>
       <c r="O2">
-        <v>0.2596064746988193</v>
+        <v>0.03058822613850173</v>
       </c>
       <c r="P2">
-        <v>0.1894665655147375</v>
+        <v>0.03069143126555566</v>
       </c>
       <c r="Q2">
-        <v>36.99698938628</v>
+        <v>51.88430835776067</v>
       </c>
       <c r="R2">
-        <v>147.98795754512</v>
+        <v>311.3058501465641</v>
       </c>
       <c r="S2">
-        <v>0.009446452903785135</v>
+        <v>0.001247009803849546</v>
       </c>
       <c r="T2">
-        <v>0.004936535696536177</v>
+        <v>0.0008957960130657345</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H3">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I3">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J3">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.669152333333334</v>
+        <v>4.955833666666666</v>
       </c>
       <c r="N3">
-        <v>5.007457</v>
+        <v>14.867501</v>
       </c>
       <c r="O3">
-        <v>0.2329876982136891</v>
+        <v>0.09081864960645702</v>
       </c>
       <c r="P3">
-        <v>0.2550593877075549</v>
+        <v>0.09112507307243575</v>
       </c>
       <c r="Q3">
-        <v>33.20349928847467</v>
+        <v>154.0482537130753</v>
       </c>
       <c r="R3">
-        <v>199.220995730848</v>
+        <v>924.289522278452</v>
       </c>
       <c r="S3">
-        <v>0.008477859887317085</v>
+        <v>0.003702462049248334</v>
       </c>
       <c r="T3">
-        <v>0.006645551254567218</v>
+        <v>0.002659682972824493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H4">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I4">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J4">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>1.614337</v>
+        <v>0.5504869999999999</v>
       </c>
       <c r="N4">
-        <v>4.843011</v>
+        <v>1.100974</v>
       </c>
       <c r="O4">
-        <v>0.225336330459468</v>
+        <v>0.01008800725136855</v>
       </c>
       <c r="P4">
-        <v>0.2466831807683927</v>
+        <v>0.006748029557950047</v>
       </c>
       <c r="Q4">
-        <v>32.113088997584</v>
+        <v>17.111462318062</v>
       </c>
       <c r="R4">
-        <v>192.678533985504</v>
+        <v>68.445849272248</v>
       </c>
       <c r="S4">
-        <v>0.008199445085746196</v>
+        <v>0.0004112642520295579</v>
       </c>
       <c r="T4">
-        <v>0.006427309875438337</v>
+        <v>0.0001969558839325098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H5">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I5">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J5">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2172696666666667</v>
+        <v>46.02683833333333</v>
       </c>
       <c r="N5">
-        <v>0.651809</v>
+        <v>138.080515</v>
       </c>
       <c r="O5">
-        <v>0.03032746533519238</v>
+        <v>0.8434696529876901</v>
       </c>
       <c r="P5">
-        <v>0.03320048568410545</v>
+        <v>0.8463155320624873</v>
       </c>
       <c r="Q5">
-        <v>4.322022069829333</v>
+        <v>1430.708644818797</v>
       </c>
       <c r="R5">
-        <v>25.932132418976</v>
+        <v>8584.251868912779</v>
       </c>
       <c r="S5">
-        <v>0.001103543250654426</v>
+        <v>0.03438626750576075</v>
       </c>
       <c r="T5">
-        <v>0.0008650359089829833</v>
+        <v>0.02470155506458934</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H6">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I6">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J6">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.803510666666667</v>
+        <v>1.366146666666667</v>
       </c>
       <c r="N6">
-        <v>5.410532000000001</v>
+        <v>4.09844</v>
       </c>
       <c r="O6">
-        <v>0.2517420312928313</v>
+        <v>0.02503546401598276</v>
       </c>
       <c r="P6">
-        <v>0.2755903803252095</v>
+        <v>0.02511993404157118</v>
       </c>
       <c r="Q6">
-        <v>35.87621329794134</v>
+        <v>42.46561173581333</v>
       </c>
       <c r="R6">
-        <v>215.257279787648</v>
+        <v>254.79367041488</v>
       </c>
       <c r="S6">
-        <v>0.00916028479362788</v>
+        <v>0.001020636794382684</v>
       </c>
       <c r="T6">
-        <v>0.007180484569408401</v>
+        <v>0.0007331797780368615</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>630.862304</v>
       </c>
       <c r="I7">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J7">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.8598525</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N7">
-        <v>3.719705</v>
+        <v>5.007457</v>
       </c>
       <c r="O7">
-        <v>0.2596064746988193</v>
+        <v>0.03058822613850173</v>
       </c>
       <c r="P7">
-        <v>0.1894665655147375</v>
+        <v>0.03069143126555566</v>
       </c>
       <c r="Q7">
-        <v>391.1036110833867</v>
+        <v>351.0017622445476</v>
       </c>
       <c r="R7">
-        <v>2346.62166650032</v>
+        <v>3159.015860200928</v>
       </c>
       <c r="S7">
-        <v>0.09986060768419165</v>
+        <v>0.008436127463997467</v>
       </c>
       <c r="T7">
-        <v>0.0782778667609636</v>
+        <v>0.009090204412949889</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>630.862304</v>
       </c>
       <c r="I8">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J8">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.669152333333334</v>
+        <v>4.955833666666666</v>
       </c>
       <c r="N8">
-        <v>5.007457</v>
+        <v>14.867501</v>
       </c>
       <c r="O8">
-        <v>0.2329876982136891</v>
+        <v>0.09081864960645702</v>
       </c>
       <c r="P8">
-        <v>0.2550593877075549</v>
+        <v>0.09112507307243575</v>
       </c>
       <c r="Q8">
-        <v>351.0017622445476</v>
+        <v>1042.149548398034</v>
       </c>
       <c r="R8">
-        <v>3159.015860200928</v>
+        <v>9379.345935582303</v>
       </c>
       <c r="S8">
-        <v>0.08962139004257225</v>
+        <v>0.02504747090331674</v>
       </c>
       <c r="T8">
-        <v>0.1053774565072377</v>
+        <v>0.02698947254060032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>630.862304</v>
       </c>
       <c r="I9">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J9">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>1.614337</v>
+        <v>0.5504869999999999</v>
       </c>
       <c r="N9">
-        <v>4.843011</v>
+        <v>1.100974</v>
       </c>
       <c r="O9">
-        <v>0.225336330459468</v>
+        <v>0.01008800725136855</v>
       </c>
       <c r="P9">
-        <v>0.2466831807683927</v>
+        <v>0.006748029557950047</v>
       </c>
       <c r="Q9">
-        <v>339.4747864174826</v>
+        <v>115.7604990473493</v>
       </c>
       <c r="R9">
-        <v>3055.273077757344</v>
+        <v>694.5629942840959</v>
       </c>
       <c r="S9">
-        <v>0.08667820368931131</v>
+        <v>0.002782237670302654</v>
       </c>
       <c r="T9">
-        <v>0.1019168374319687</v>
+        <v>0.00199863497846174</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>630.862304</v>
       </c>
       <c r="I10">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J10">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2172696666666667</v>
+        <v>46.02683833333333</v>
       </c>
       <c r="N10">
-        <v>0.651809</v>
+        <v>138.080515</v>
       </c>
       <c r="O10">
-        <v>0.03032746533519238</v>
+        <v>0.8434696529876901</v>
       </c>
       <c r="P10">
-        <v>0.03320048568410545</v>
+        <v>0.8463155320624873</v>
       </c>
       <c r="Q10">
-        <v>45.68908083421511</v>
+        <v>9678.865758934062</v>
       </c>
       <c r="R10">
-        <v>411.201727507936</v>
+        <v>87109.79183040655</v>
       </c>
       <c r="S10">
-        <v>0.01166580733938583</v>
+        <v>0.2326260265109444</v>
       </c>
       <c r="T10">
-        <v>0.01371673776699951</v>
+        <v>0.2506621837781919</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>630.862304</v>
       </c>
       <c r="I11">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J11">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.803510666666667</v>
+        <v>1.366146666666667</v>
       </c>
       <c r="N11">
-        <v>5.410532000000001</v>
+        <v>4.09844</v>
       </c>
       <c r="O11">
-        <v>0.2517420312928313</v>
+        <v>0.02503546401598276</v>
       </c>
       <c r="P11">
-        <v>0.2755903803252095</v>
+        <v>0.02511993404157118</v>
       </c>
       <c r="Q11">
-        <v>379.2556314873032</v>
+        <v>287.2834779117511</v>
       </c>
       <c r="R11">
-        <v>3413.300683385728</v>
+        <v>2585.55130120576</v>
       </c>
       <c r="S11">
-        <v>0.09683545933790713</v>
+        <v>0.006904694786903965</v>
       </c>
       <c r="T11">
-        <v>0.1138598095821927</v>
+        <v>0.007440035406037503</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H12">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I12">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J12">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.8598525</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N12">
-        <v>3.719705</v>
+        <v>5.007457</v>
       </c>
       <c r="O12">
-        <v>0.2596064746988193</v>
+        <v>0.03058822613850173</v>
       </c>
       <c r="P12">
-        <v>0.1894665655147375</v>
+        <v>0.03069143126555566</v>
       </c>
       <c r="Q12">
-        <v>241.5854970909417</v>
+        <v>219.5805052411982</v>
       </c>
       <c r="R12">
-        <v>1449.51298254565</v>
+        <v>1976.224547170783</v>
       </c>
       <c r="S12">
-        <v>0.06168410074343527</v>
+        <v>0.005277492394847617</v>
       </c>
       <c r="T12">
-        <v>0.048352397719575</v>
+        <v>0.005686671385856587</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H13">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I13">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J13">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.669152333333334</v>
+        <v>4.955833666666666</v>
       </c>
       <c r="N13">
-        <v>5.007457</v>
+        <v>14.867501</v>
       </c>
       <c r="O13">
-        <v>0.2329876982136891</v>
+        <v>0.09081864960645702</v>
       </c>
       <c r="P13">
-        <v>0.2550593877075549</v>
+        <v>0.09112507307243575</v>
       </c>
       <c r="Q13">
-        <v>216.8145033914456</v>
+        <v>651.9503574876466</v>
       </c>
       <c r="R13">
-        <v>1951.33053052301</v>
+        <v>5867.55321738882</v>
       </c>
       <c r="S13">
-        <v>0.05535931515293465</v>
+        <v>0.01566925556382997</v>
       </c>
       <c r="T13">
-        <v>0.06509186949708912</v>
+        <v>0.01688413750051057</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H14">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I14">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J14">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>1.614337</v>
+        <v>0.5504869999999999</v>
       </c>
       <c r="N14">
-        <v>4.843011</v>
+        <v>1.100974</v>
       </c>
       <c r="O14">
-        <v>0.225336330459468</v>
+        <v>0.01008800725136855</v>
       </c>
       <c r="P14">
-        <v>0.2466831807683927</v>
+        <v>0.006748029557950047</v>
       </c>
       <c r="Q14">
-        <v>209.6942669471367</v>
+        <v>72.41772435911767</v>
       </c>
       <c r="R14">
-        <v>1887.24840252423</v>
+        <v>434.506346154706</v>
       </c>
       <c r="S14">
-        <v>0.05354130294840857</v>
+        <v>0.001740518763893018</v>
       </c>
       <c r="T14">
-        <v>0.06295423804637104</v>
+        <v>0.001250310755014385</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H15">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I15">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J15">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2172696666666667</v>
+        <v>46.02683833333333</v>
       </c>
       <c r="N15">
-        <v>0.651809</v>
+        <v>138.080515</v>
       </c>
       <c r="O15">
-        <v>0.03032746533519238</v>
+        <v>0.8434696529876901</v>
       </c>
       <c r="P15">
-        <v>0.03320048568410545</v>
+        <v>0.8463155320624873</v>
       </c>
       <c r="Q15">
-        <v>28.22223828204111</v>
+        <v>6054.92753061381</v>
       </c>
       <c r="R15">
-        <v>254.00014453837</v>
+        <v>54494.34777552429</v>
       </c>
       <c r="S15">
-        <v>0.007205992952214901</v>
+        <v>0.1455267349852714</v>
       </c>
       <c r="T15">
-        <v>0.008472856854293137</v>
+        <v>0.1568098365287692</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H16">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I16">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J16">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.803510666666667</v>
+        <v>1.366146666666667</v>
       </c>
       <c r="N16">
-        <v>5.410532000000001</v>
+        <v>4.09844</v>
       </c>
       <c r="O16">
-        <v>0.2517420312928313</v>
+        <v>0.02503546401598276</v>
       </c>
       <c r="P16">
-        <v>0.2755903803252095</v>
+        <v>0.02511993404157118</v>
       </c>
       <c r="Q16">
-        <v>234.2669759647512</v>
+        <v>179.7194715602622</v>
       </c>
       <c r="R16">
-        <v>2108.40278368276</v>
+        <v>1617.47524404236</v>
       </c>
       <c r="S16">
-        <v>0.05981546044889408</v>
+        <v>0.004319455150736045</v>
       </c>
       <c r="T16">
-        <v>0.07033143626671674</v>
+        <v>0.004654354790195915</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>93.19123099999999</v>
+        <v>126.3423615</v>
       </c>
       <c r="H17">
-        <v>186.382462</v>
+        <v>252.684723</v>
       </c>
       <c r="I17">
-        <v>0.1704670361627196</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J17">
-        <v>0.1220609836569967</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.8598525</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N17">
-        <v>3.719705</v>
+        <v>5.007457</v>
       </c>
       <c r="O17">
-        <v>0.2596064746988193</v>
+        <v>0.03058822613850173</v>
       </c>
       <c r="P17">
-        <v>0.1894665655147375</v>
+        <v>0.03069143126555566</v>
       </c>
       <c r="Q17">
-        <v>173.3219439534275</v>
+        <v>210.8846474965685</v>
       </c>
       <c r="R17">
-        <v>693.2877758137099</v>
+        <v>1265.307884979411</v>
       </c>
       <c r="S17">
-        <v>0.04425434631055977</v>
+        <v>0.005068492406148488</v>
       </c>
       <c r="T17">
-        <v>0.02312647535684167</v>
+        <v>0.003640978022518873</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>93.19123099999999</v>
+        <v>126.3423615</v>
       </c>
       <c r="H18">
-        <v>186.382462</v>
+        <v>252.684723</v>
       </c>
       <c r="I18">
-        <v>0.1704670361627196</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J18">
-        <v>0.1220609836569967</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.669152333333334</v>
+        <v>4.955833666666666</v>
       </c>
       <c r="N18">
-        <v>5.007457</v>
+        <v>14.867501</v>
       </c>
       <c r="O18">
-        <v>0.2329876982136891</v>
+        <v>0.09081864960645702</v>
       </c>
       <c r="P18">
-        <v>0.2550593877075549</v>
+        <v>0.09112507307243575</v>
       </c>
       <c r="Q18">
-        <v>155.5503606698557</v>
+        <v>626.1317286478704</v>
       </c>
       <c r="R18">
-        <v>933.302164019134</v>
+        <v>3756.790371887223</v>
       </c>
       <c r="S18">
-        <v>0.03971672237686173</v>
+        <v>0.01504871952308428</v>
       </c>
       <c r="T18">
-        <v>0.03113279975453546</v>
+        <v>0.01081032635742601</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>93.19123099999999</v>
+        <v>126.3423615</v>
       </c>
       <c r="H19">
-        <v>186.382462</v>
+        <v>252.684723</v>
       </c>
       <c r="I19">
-        <v>0.1704670361627196</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J19">
-        <v>0.1220609836569967</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M19">
-        <v>1.614337</v>
+        <v>0.5504869999999999</v>
       </c>
       <c r="N19">
-        <v>4.843011</v>
+        <v>1.100974</v>
       </c>
       <c r="O19">
-        <v>0.225336330459468</v>
+        <v>0.01008800725136855</v>
       </c>
       <c r="P19">
-        <v>0.2466831807683927</v>
+        <v>0.006748029557950047</v>
       </c>
       <c r="Q19">
-        <v>150.442052278847</v>
+        <v>69.54982755505048</v>
       </c>
       <c r="R19">
-        <v>902.6523136730818</v>
+        <v>278.1993102202019</v>
       </c>
       <c r="S19">
-        <v>0.03841241639320866</v>
+        <v>0.001671590497442192</v>
       </c>
       <c r="T19">
-        <v>0.03011039169622675</v>
+        <v>0.000800530516260987</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>93.19123099999999</v>
+        <v>126.3423615</v>
       </c>
       <c r="H20">
-        <v>186.382462</v>
+        <v>252.684723</v>
       </c>
       <c r="I20">
-        <v>0.1704670361627196</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J20">
-        <v>0.1220609836569967</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2172696666666667</v>
+        <v>46.02683833333333</v>
       </c>
       <c r="N20">
-        <v>0.651809</v>
+        <v>138.080515</v>
       </c>
       <c r="O20">
-        <v>0.03032746533519238</v>
+        <v>0.8434696529876901</v>
       </c>
       <c r="P20">
-        <v>0.03320048568410545</v>
+        <v>0.8463155320624873</v>
       </c>
       <c r="Q20">
-        <v>20.24762769562633</v>
+        <v>5815.139447412057</v>
       </c>
       <c r="R20">
-        <v>121.485766173758</v>
+        <v>34890.83668447234</v>
       </c>
       <c r="S20">
-        <v>0.005169833130017863</v>
+        <v>0.1397635649621299</v>
       </c>
       <c r="T20">
-        <v>0.004052483940491951</v>
+        <v>0.1003998876981046</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>93.19123099999999</v>
+        <v>126.3423615</v>
       </c>
       <c r="H21">
-        <v>186.382462</v>
+        <v>252.684723</v>
       </c>
       <c r="I21">
-        <v>0.1704670361627196</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J21">
-        <v>0.1220609836569967</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.803510666666667</v>
+        <v>1.366146666666667</v>
       </c>
       <c r="N21">
-        <v>5.410532000000001</v>
+        <v>4.09844</v>
       </c>
       <c r="O21">
-        <v>0.2517420312928313</v>
+        <v>0.02503546401598276</v>
       </c>
       <c r="P21">
-        <v>0.2755903803252095</v>
+        <v>0.02511993404157118</v>
       </c>
       <c r="Q21">
-        <v>168.0713791482973</v>
+        <v>172.60219602202</v>
       </c>
       <c r="R21">
-        <v>1008.428274889784</v>
+        <v>1035.61317613212</v>
       </c>
       <c r="S21">
-        <v>0.04291371795207156</v>
+        <v>0.004148395486382649</v>
       </c>
       <c r="T21">
-        <v>0.03363883290890092</v>
+        <v>0.00298002158912443</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.22153466666667</v>
+        <v>120.618675</v>
       </c>
       <c r="H22">
-        <v>51.664604</v>
+        <v>361.856025</v>
       </c>
       <c r="I22">
-        <v>0.03150193361862766</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J22">
-        <v>0.03383490225861063</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.8598525</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N22">
-        <v>3.719705</v>
+        <v>5.007457</v>
       </c>
       <c r="O22">
-        <v>0.2596064746988193</v>
+        <v>0.03058822613850173</v>
       </c>
       <c r="P22">
-        <v>0.1894665655147375</v>
+        <v>0.03069143126555566</v>
       </c>
       <c r="Q22">
-        <v>32.02951430363667</v>
+        <v>201.330942819825</v>
       </c>
       <c r="R22">
-        <v>192.17708582182</v>
+        <v>1811.978485378425</v>
       </c>
       <c r="S22">
-        <v>0.008178105932928144</v>
+        <v>0.004838874554970167</v>
       </c>
       <c r="T22">
-        <v>0.006410582725465788</v>
+        <v>0.005214046257719506</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.22153466666667</v>
+        <v>120.618675</v>
       </c>
       <c r="H23">
-        <v>51.664604</v>
+        <v>361.856025</v>
       </c>
       <c r="I23">
-        <v>0.03150193361862766</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J23">
-        <v>0.03383490225861063</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.669152333333334</v>
+        <v>4.955833666666666</v>
       </c>
       <c r="N23">
-        <v>5.007457</v>
+        <v>14.867501</v>
       </c>
       <c r="O23">
-        <v>0.2329876982136891</v>
+        <v>0.09081864960645702</v>
       </c>
       <c r="P23">
-        <v>0.2550593877075549</v>
+        <v>0.09112507307243575</v>
       </c>
       <c r="Q23">
-        <v>28.74536477244756</v>
+        <v>597.7660903937249</v>
       </c>
       <c r="R23">
-        <v>258.708282952028</v>
+        <v>5379.894813543525</v>
       </c>
       <c r="S23">
-        <v>0.007339563003084487</v>
+        <v>0.01436696756155739</v>
       </c>
       <c r="T23">
-        <v>0.008629909453226194</v>
+        <v>0.01548087940659121</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.22153466666667</v>
+        <v>120.618675</v>
       </c>
       <c r="H24">
-        <v>51.664604</v>
+        <v>361.856025</v>
       </c>
       <c r="I24">
-        <v>0.03150193361862766</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J24">
-        <v>0.03383490225861063</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M24">
-        <v>1.614337</v>
+        <v>0.5504869999999999</v>
       </c>
       <c r="N24">
-        <v>4.843011</v>
+        <v>1.100974</v>
       </c>
       <c r="O24">
-        <v>0.225336330459468</v>
+        <v>0.01008800725136855</v>
       </c>
       <c r="P24">
-        <v>0.2466831807683927</v>
+        <v>0.006748029557950047</v>
       </c>
       <c r="Q24">
-        <v>27.80136060918267</v>
+        <v>66.399012544725</v>
       </c>
       <c r="R24">
-        <v>250.212245482644</v>
+        <v>398.3940752683499</v>
       </c>
       <c r="S24">
-        <v>0.007098530123999306</v>
+        <v>0.001595862453022679</v>
       </c>
       <c r="T24">
-        <v>0.008346501310141741</v>
+        <v>0.001146396137709515</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.22153466666667</v>
+        <v>120.618675</v>
       </c>
       <c r="H25">
-        <v>51.664604</v>
+        <v>361.856025</v>
       </c>
       <c r="I25">
-        <v>0.03150193361862766</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J25">
-        <v>0.03383490225861063</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2172696666666667</v>
+        <v>46.02683833333333</v>
       </c>
       <c r="N25">
-        <v>0.651809</v>
+        <v>138.080515</v>
       </c>
       <c r="O25">
-        <v>0.03032746533519238</v>
+        <v>0.8434696529876901</v>
       </c>
       <c r="P25">
-        <v>0.03320048568410545</v>
+        <v>0.8463155320624873</v>
       </c>
       <c r="Q25">
-        <v>3.741717096515111</v>
+        <v>5551.696254205875</v>
       </c>
       <c r="R25">
-        <v>33.675453868636</v>
+        <v>49965.26628785287</v>
       </c>
       <c r="S25">
-        <v>0.0009553737998104617</v>
+        <v>0.1334318578413507</v>
       </c>
       <c r="T25">
-        <v>0.001123335188060109</v>
+        <v>0.14377720917019</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>17.22153466666667</v>
+        <v>120.618675</v>
       </c>
       <c r="H26">
-        <v>51.664604</v>
+        <v>361.856025</v>
       </c>
       <c r="I26">
-        <v>0.03150193361862766</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J26">
-        <v>0.03383490225861063</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.803510666666667</v>
+        <v>1.366146666666667</v>
       </c>
       <c r="N26">
-        <v>5.410532000000001</v>
+        <v>4.09844</v>
       </c>
       <c r="O26">
-        <v>0.2517420312928313</v>
+        <v>0.02503546401598276</v>
       </c>
       <c r="P26">
-        <v>0.2755903803252095</v>
+        <v>0.02511993404157118</v>
       </c>
       <c r="Q26">
-        <v>31.05922146770311</v>
+        <v>164.782800789</v>
       </c>
       <c r="R26">
-        <v>279.532993209328</v>
+        <v>1483.045207101</v>
       </c>
       <c r="S26">
-        <v>0.007930360758805259</v>
+        <v>0.003960460775014528</v>
       </c>
       <c r="T26">
-        <v>0.009324573581716794</v>
+        <v>0.00426752655978632</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,46 +2093,46 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>76.19421933333332</v>
+        <v>142.588219</v>
       </c>
       <c r="H27">
-        <v>228.582658</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I27">
-        <v>0.1393758039582664</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J27">
-        <v>0.1496976903460524</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.8598525</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N27">
-        <v>3.719705</v>
+        <v>5.007457</v>
       </c>
       <c r="O27">
-        <v>0.2596064746988193</v>
+        <v>0.03058822613850173</v>
       </c>
       <c r="P27">
-        <v>0.1894665655147375</v>
+        <v>0.03069143126555566</v>
       </c>
       <c r="Q27">
-        <v>141.7100093126483</v>
+        <v>238.0014584496943</v>
       </c>
       <c r="R27">
-        <v>850.26005587589</v>
+        <v>2142.013126047249</v>
       </c>
       <c r="S27">
-        <v>0.03618286112391929</v>
+        <v>0.005720229514688448</v>
       </c>
       <c r="T27">
-        <v>0.02836270725535522</v>
+        <v>0.006163735173445068</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>76.19421933333332</v>
+        <v>142.588219</v>
       </c>
       <c r="H28">
-        <v>228.582658</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I28">
-        <v>0.1393758039582664</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J28">
-        <v>0.1496976903460524</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.669152333333334</v>
+        <v>4.955833666666666</v>
       </c>
       <c r="N28">
-        <v>5.007457</v>
+        <v>14.867501</v>
       </c>
       <c r="O28">
-        <v>0.2329876982136891</v>
+        <v>0.09081864960645702</v>
       </c>
       <c r="P28">
-        <v>0.2550593877075549</v>
+        <v>0.09112507307243575</v>
       </c>
       <c r="Q28">
-        <v>127.1797589867451</v>
+        <v>706.6434961902395</v>
       </c>
       <c r="R28">
-        <v>1144.617830880706</v>
+        <v>6359.791465712156</v>
       </c>
       <c r="S28">
-        <v>0.03247284775091887</v>
+        <v>0.01698377400542031</v>
       </c>
       <c r="T28">
-        <v>0.03818180124089928</v>
+        <v>0.01830057429448315</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>76.19421933333332</v>
+        <v>142.588219</v>
       </c>
       <c r="H29">
-        <v>228.582658</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I29">
-        <v>0.1393758039582664</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J29">
-        <v>0.1496976903460524</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>1.614337</v>
+        <v>0.5504869999999999</v>
       </c>
       <c r="N29">
-        <v>4.843011</v>
+        <v>1.100974</v>
       </c>
       <c r="O29">
-        <v>0.225336330459468</v>
+        <v>0.01008800725136855</v>
       </c>
       <c r="P29">
-        <v>0.2466831807683927</v>
+        <v>0.006748029557950047</v>
       </c>
       <c r="Q29">
-        <v>123.0031474559153</v>
+        <v>78.49296091265298</v>
       </c>
       <c r="R29">
-        <v>1107.028327103238</v>
+        <v>470.9577654759179</v>
       </c>
       <c r="S29">
-        <v>0.03140643221879395</v>
+        <v>0.001886533614678448</v>
       </c>
       <c r="T29">
-        <v>0.03692790240824612</v>
+        <v>0.00135520128657091</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>76.19421933333332</v>
+        <v>142.588219</v>
       </c>
       <c r="H30">
-        <v>228.582658</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I30">
-        <v>0.1393758039582664</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J30">
-        <v>0.1496976903460524</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.2172696666666667</v>
+        <v>46.02683833333333</v>
       </c>
       <c r="N30">
-        <v>0.651809</v>
+        <v>138.080515</v>
       </c>
       <c r="O30">
-        <v>0.03032746533519238</v>
+        <v>0.8434696529876901</v>
       </c>
       <c r="P30">
-        <v>0.03320048568410545</v>
+        <v>0.8463155320624873</v>
       </c>
       <c r="Q30">
-        <v>16.55469263648022</v>
+        <v>6562.884904150927</v>
       </c>
       <c r="R30">
-        <v>148.992233728322</v>
+        <v>59065.96413735834</v>
       </c>
       <c r="S30">
-        <v>0.004226914863108894</v>
+        <v>0.157735201182233</v>
       </c>
       <c r="T30">
-        <v>0.004970036025277764</v>
+        <v>0.1699648598226423</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>76.19421933333332</v>
+        <v>142.588219</v>
       </c>
       <c r="H31">
-        <v>228.582658</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I31">
-        <v>0.1393758039582664</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J31">
-        <v>0.1496976903460524</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.803510666666667</v>
+        <v>1.366146666666667</v>
       </c>
       <c r="N31">
-        <v>5.410532000000001</v>
+        <v>4.09844</v>
       </c>
       <c r="O31">
-        <v>0.2517420312928313</v>
+        <v>0.02503546401598276</v>
       </c>
       <c r="P31">
-        <v>0.2755903803252095</v>
+        <v>0.02511993404157118</v>
       </c>
       <c r="Q31">
-        <v>137.4170873060062</v>
+        <v>194.7964200927866</v>
       </c>
       <c r="R31">
-        <v>1236.753785754056</v>
+        <v>1753.16778083508</v>
       </c>
       <c r="S31">
-        <v>0.03508674800152543</v>
+        <v>0.004681821022562893</v>
       </c>
       <c r="T31">
-        <v>0.04125524341627403</v>
+        <v>0.005044815918390153</v>
       </c>
     </row>
   </sheetData>
